--- a/01_Dataset_Cleaned/NewDataset_YW_H.xlsx
+++ b/01_Dataset_Cleaned/NewDataset_YW_H.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ywu/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ywu/InSync/2021_MPIE/2021-12_H Diffusion/Matlab Toolbox HEA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D19439-CE10-F34A-A35C-5603C64340E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D73C07-954D-2C4C-8FFD-5F0198EF3438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3420" yWindow="8920" windowWidth="28560" windowHeight="21100" xr2:uid="{194B26E4-9AF2-1949-9376-FC37CDA25FB1}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="37400" windowHeight="21100" xr2:uid="{194B26E4-9AF2-1949-9376-FC37CDA25FB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="124">
   <si>
     <t>Ni</t>
   </si>
@@ -150,6 +150,264 @@
   </si>
   <si>
     <t>FCC</t>
+  </si>
+  <si>
+    <t>KW99_#1</t>
+  </si>
+  <si>
+    <t>KW99_#2</t>
+  </si>
+  <si>
+    <t>KW99_#3</t>
+  </si>
+  <si>
+    <t>KW99_#4</t>
+  </si>
+  <si>
+    <t>KW99_#5</t>
+  </si>
+  <si>
+    <t>KW99_#6</t>
+  </si>
+  <si>
+    <t>KW99_#7</t>
+  </si>
+  <si>
+    <t>KW99_#8</t>
+  </si>
+  <si>
+    <t>KW99_#9</t>
+  </si>
+  <si>
+    <t>KW99_#10</t>
+  </si>
+  <si>
+    <t>KW99_#11</t>
+  </si>
+  <si>
+    <t>KW99_#13</t>
+  </si>
+  <si>
+    <t>KW99_#14</t>
+  </si>
+  <si>
+    <t>KW99_#15</t>
+  </si>
+  <si>
+    <t>KW99_#16</t>
+  </si>
+  <si>
+    <t>KW99_#17</t>
+  </si>
+  <si>
+    <t>KW99_#18</t>
+  </si>
+  <si>
+    <t>KW99_#20</t>
+  </si>
+  <si>
+    <t>KW99_#22</t>
+  </si>
+  <si>
+    <t>KW99_#23</t>
+  </si>
+  <si>
+    <t>KW99_#24</t>
+  </si>
+  <si>
+    <t>KW99_#25</t>
+  </si>
+  <si>
+    <t>KW99_#26</t>
+  </si>
+  <si>
+    <t>KW99_#28</t>
+  </si>
+  <si>
+    <t>KW99_#29</t>
+  </si>
+  <si>
+    <t>KW99_#31</t>
+  </si>
+  <si>
+    <t>KW99_#32</t>
+  </si>
+  <si>
+    <t>KW99_#33</t>
+  </si>
+  <si>
+    <t>KW99_#34</t>
+  </si>
+  <si>
+    <t>KW99_#35</t>
+  </si>
+  <si>
+    <t>KW99_#36</t>
+  </si>
+  <si>
+    <t>KW99_#37</t>
+  </si>
+  <si>
+    <t>KW99_#38</t>
+  </si>
+  <si>
+    <t>KW99_#40</t>
+  </si>
+  <si>
+    <t>KW99_#41</t>
+  </si>
+  <si>
+    <t>KW99_#42</t>
+  </si>
+  <si>
+    <t>KW99_#43</t>
+  </si>
+  <si>
+    <t>KW99_#44</t>
+  </si>
+  <si>
+    <t>KW99_#45</t>
+  </si>
+  <si>
+    <t>KW99_#46</t>
+  </si>
+  <si>
+    <t>KW99_#47</t>
+  </si>
+  <si>
+    <t>KW99_#49</t>
+  </si>
+  <si>
+    <t>KW99_#51</t>
+  </si>
+  <si>
+    <t>KW99_#52</t>
+  </si>
+  <si>
+    <t>KW99_#53</t>
+  </si>
+  <si>
+    <t>KW99_#54</t>
+  </si>
+  <si>
+    <t>KW99_#56</t>
+  </si>
+  <si>
+    <t>KW99_#58</t>
+  </si>
+  <si>
+    <t>KW99_#59</t>
+  </si>
+  <si>
+    <t>KW99_#60</t>
+  </si>
+  <si>
+    <t>KW99_#61</t>
+  </si>
+  <si>
+    <t>KW99_#62</t>
+  </si>
+  <si>
+    <t>KW99_#63</t>
+  </si>
+  <si>
+    <t>KW99_#64</t>
+  </si>
+  <si>
+    <t>KW131_#1</t>
+  </si>
+  <si>
+    <t>KW131_#2</t>
+  </si>
+  <si>
+    <t>KW131_#6</t>
+  </si>
+  <si>
+    <t>KW131_#8</t>
+  </si>
+  <si>
+    <t>KW131_#9</t>
+  </si>
+  <si>
+    <t>KW131_#13</t>
+  </si>
+  <si>
+    <t>KW131_#15</t>
+  </si>
+  <si>
+    <t>KW131_#17</t>
+  </si>
+  <si>
+    <t>KW131_#18</t>
+  </si>
+  <si>
+    <t>KW131_#22</t>
+  </si>
+  <si>
+    <t>KW131_#23</t>
+  </si>
+  <si>
+    <t>KW131_#24</t>
+  </si>
+  <si>
+    <t>KW131_#25</t>
+  </si>
+  <si>
+    <t>KW131_#26</t>
+  </si>
+  <si>
+    <t>KW131_#27</t>
+  </si>
+  <si>
+    <t>KW131_#31</t>
+  </si>
+  <si>
+    <t>KW131_#32</t>
+  </si>
+  <si>
+    <t>KW131_#33</t>
+  </si>
+  <si>
+    <t>KW131_#34</t>
+  </si>
+  <si>
+    <t>KW131_#35</t>
+  </si>
+  <si>
+    <t>KW131_#36</t>
+  </si>
+  <si>
+    <t>KW131_#40</t>
+  </si>
+  <si>
+    <t>KW131_#41</t>
+  </si>
+  <si>
+    <t>KW131_#42</t>
+  </si>
+  <si>
+    <t>KW131_#43</t>
+  </si>
+  <si>
+    <t>KW131_#44</t>
+  </si>
+  <si>
+    <t>KW131_#45</t>
+  </si>
+  <si>
+    <t>KW131_#50</t>
+  </si>
+  <si>
+    <t>KW131_#51</t>
+  </si>
+  <si>
+    <t>KW131_#52</t>
+  </si>
+  <si>
+    <t>KW131_#53</t>
+  </si>
+  <si>
+    <t>KW131_#54</t>
   </si>
 </sst>
 </file>
@@ -159,7 +417,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -181,12 +439,34 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,8 +496,23 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -242,42 +537,94 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Calculation" xfId="4" builtinId="22"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -590,43 +937,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8DB58DC-3A3E-E34E-8F0B-133C9AC11E14}">
-  <dimension ref="A1:AA11"/>
+  <dimension ref="A1:AA107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1:AA11"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W98" sqref="W98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="6.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4" style="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3" style="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4" style="16" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4" style="16" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3" style="16" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25" style="16" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:27" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -689,552 +1037,4872 @@
       <c r="U1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="X1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Y1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="Z1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AA1" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="7">
         <v>16.5</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="7">
         <v>31</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="7">
         <v>47.5</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="7">
         <v>3.5</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="2">
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="7">
         <v>0.95</v>
       </c>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4">
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12">
         <v>25</v>
       </c>
-      <c r="W2" s="4">
+      <c r="W2" s="12">
         <v>1</v>
       </c>
-      <c r="X2" s="4">
+      <c r="X2" s="12">
         <v>7</v>
       </c>
-      <c r="Y2" s="4">
+      <c r="Y2" s="12">
         <v>0.33329999999999999</v>
       </c>
-      <c r="Z2" s="7">
+      <c r="Z2" s="13">
         <v>125</v>
       </c>
-      <c r="AA2" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="AA2" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="7">
         <v>25.2</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="7">
         <v>19.2</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="7">
         <v>52.5</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="7">
         <v>2.5</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="2">
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="7">
         <v>0.36</v>
       </c>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4">
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12">
         <v>25</v>
       </c>
-      <c r="W3" s="4">
+      <c r="W3" s="12">
         <v>1</v>
       </c>
-      <c r="X3" s="4">
+      <c r="X3" s="12">
         <v>7</v>
       </c>
-      <c r="Y3" s="4">
+      <c r="Y3" s="12">
         <v>0.33329999999999999</v>
       </c>
-      <c r="Z3" s="7">
+      <c r="Z3" s="13">
         <v>107</v>
       </c>
-      <c r="AA3" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="AA3" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="7">
         <v>29.5</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="7">
         <v>17.899999999999999</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="7">
         <v>44.5</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="7">
         <v>5.8</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="2">
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="7">
         <v>1.6</v>
       </c>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4">
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12">
         <v>25</v>
       </c>
-      <c r="W4" s="4">
+      <c r="W4" s="12">
         <v>1</v>
       </c>
-      <c r="X4" s="4">
+      <c r="X4" s="12">
         <v>7</v>
       </c>
-      <c r="Y4" s="4">
+      <c r="Y4" s="12">
         <v>0.33329999999999999</v>
       </c>
-      <c r="Z4" s="7">
+      <c r="Z4" s="13">
         <v>128</v>
       </c>
-      <c r="AA4" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="AA4" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="7">
         <v>45</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="7">
         <v>5.4</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="7">
         <v>48.6</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="7">
         <v>0.69</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="2">
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="7">
         <v>0.09</v>
       </c>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4">
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12">
         <v>25</v>
       </c>
-      <c r="W5" s="4">
+      <c r="W5" s="12">
         <v>1</v>
       </c>
-      <c r="X5" s="4">
+      <c r="X5" s="12">
         <v>7</v>
       </c>
-      <c r="Y5" s="4">
+      <c r="Y5" s="12">
         <v>0.33329999999999999</v>
       </c>
-      <c r="Z5" s="7">
+      <c r="Z5" s="13">
         <v>85</v>
       </c>
-      <c r="AA5" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="AA5" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="7">
         <v>53.2</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="7">
         <v>8.1</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="7">
         <v>29.65</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="7">
         <v>4.76</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="2">
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="7">
         <v>3.75</v>
       </c>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4">
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12">
         <v>25</v>
       </c>
-      <c r="W6" s="4">
+      <c r="W6" s="12">
         <v>1</v>
       </c>
-      <c r="X6" s="4">
+      <c r="X6" s="12">
         <v>7</v>
       </c>
-      <c r="Y6" s="4">
+      <c r="Y6" s="12">
         <v>0.33329999999999999</v>
       </c>
-      <c r="Z6" s="7">
+      <c r="Z6" s="13">
         <v>182</v>
       </c>
-      <c r="AA6" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="AA6" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="8">
         <v>14.8</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="8">
         <v>26.5</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="8">
         <v>30.1</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="5">
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="8">
         <v>10.050000000000001</v>
       </c>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="5">
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="8">
         <v>17.899999999999999</v>
       </c>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4">
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12">
         <v>25</v>
       </c>
-      <c r="W7" s="4">
+      <c r="W7" s="12">
         <v>1</v>
       </c>
-      <c r="X7" s="4">
+      <c r="X7" s="12">
         <v>7</v>
       </c>
-      <c r="Y7" s="4">
+      <c r="Y7" s="12">
         <v>0.33329999999999999</v>
       </c>
-      <c r="Z7" s="7">
+      <c r="Z7" s="13">
         <v>151</v>
       </c>
-      <c r="AA7" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="AA7" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="8">
         <v>15.8</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="8">
         <v>17.899999999999999</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="8">
         <v>42.9</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="5">
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="8">
         <v>7.2</v>
       </c>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="5">
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="8">
         <v>15.45</v>
       </c>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4">
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12">
         <v>25</v>
       </c>
-      <c r="W8" s="4">
+      <c r="W8" s="12">
         <v>1</v>
       </c>
-      <c r="X8" s="4">
+      <c r="X8" s="12">
         <v>7</v>
       </c>
-      <c r="Y8" s="4">
+      <c r="Y8" s="12">
         <v>0.33329999999999999</v>
       </c>
-      <c r="Z8" s="7">
+      <c r="Z8" s="13">
         <v>131</v>
       </c>
-      <c r="AA8" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="AA8" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="8">
         <v>19.8</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="8">
         <v>18.899999999999999</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="8">
         <v>47.5</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="5">
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="8">
         <v>4.8</v>
       </c>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="5">
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="8">
         <v>8.1999999999999993</v>
       </c>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4">
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12">
         <v>25</v>
       </c>
-      <c r="W9" s="4">
+      <c r="W9" s="12">
         <v>1</v>
       </c>
-      <c r="X9" s="4">
+      <c r="X9" s="12">
         <v>7</v>
       </c>
-      <c r="Y9" s="4">
+      <c r="Y9" s="12">
         <v>0.33329999999999999</v>
       </c>
-      <c r="Z9" s="7">
+      <c r="Z9" s="13">
         <v>117</v>
       </c>
-      <c r="AA9" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="AA9" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="8">
         <v>35.5</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="8">
         <v>6.1</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="8">
         <v>55.4</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="5">
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="8">
         <v>1</v>
       </c>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="5">
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="8">
         <v>1.5</v>
       </c>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4">
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12">
         <v>25</v>
       </c>
-      <c r="W10" s="4">
+      <c r="W10" s="12">
         <v>1</v>
       </c>
-      <c r="X10" s="4">
+      <c r="X10" s="12">
         <v>7</v>
       </c>
-      <c r="Y10" s="4">
+      <c r="Y10" s="12">
         <v>0.33329999999999999</v>
       </c>
-      <c r="Z10" s="7">
+      <c r="Z10" s="13">
         <v>95</v>
       </c>
-      <c r="AA10" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="AA10" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="8">
         <v>42.1</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="8">
         <v>8.8000000000000007</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="8">
         <v>36.1</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="5">
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="8">
         <v>8.1</v>
       </c>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="5">
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="8">
         <v>4.5999999999999996</v>
       </c>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4">
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12">
         <v>25</v>
       </c>
-      <c r="W11" s="4">
+      <c r="W11" s="12">
         <v>1</v>
       </c>
-      <c r="X11" s="4">
+      <c r="X11" s="12">
         <v>7</v>
       </c>
-      <c r="Y11" s="4">
+      <c r="Y11" s="12">
         <v>0.33329999999999999</v>
       </c>
-      <c r="Z11" s="7">
+      <c r="Z11" s="13">
         <v>125</v>
       </c>
-      <c r="AA11" s="9" t="s">
+      <c r="AA11" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="14">
+        <v>10.271485788950168</v>
+      </c>
+      <c r="C12" s="14">
+        <v>31.290494086317327</v>
+      </c>
+      <c r="D12" s="14">
+        <v>51.985556121713991</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="14">
+        <v>1.6010177480480152</v>
+      </c>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="14">
+        <v>4.8514462549704973</v>
+      </c>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="5">
+        <v>104.2540625</v>
+      </c>
+      <c r="AA12" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="14">
+        <v>10.495406284050869</v>
+      </c>
+      <c r="C13" s="14">
+        <v>32.945772340771889</v>
+      </c>
+      <c r="D13" s="14">
+        <v>47.589717947911439</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="14">
+        <v>2.3341961848493611</v>
+      </c>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="14">
+        <v>6.6349072424164355</v>
+      </c>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="5">
+        <v>113.29373437499996</v>
+      </c>
+      <c r="AA13" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="14">
+        <v>11.112927999773884</v>
+      </c>
+      <c r="C14" s="14">
+        <v>32.812147890082358</v>
+      </c>
+      <c r="D14" s="14">
+        <v>43.562303431624755</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="14">
+        <v>3.2785922197858262</v>
+      </c>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="14">
+        <v>9.234028458733178</v>
+      </c>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="5">
+        <v>115.24692968750006</v>
+      </c>
+      <c r="AA14" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="14">
+        <v>11.335795283029915</v>
+      </c>
+      <c r="C15" s="14">
+        <v>32.223975663519262</v>
+      </c>
+      <c r="D15" s="14">
+        <v>39.221252958176038</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="14">
+        <v>4.6211744387679641</v>
+      </c>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="14">
+        <v>12.597801656506819</v>
+      </c>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="5">
+        <v>124.79264843749999</v>
+      </c>
+      <c r="AA15" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="14">
+        <v>11.532218575757774</v>
+      </c>
+      <c r="C16" s="14">
+        <v>30.531578106145592</v>
+      </c>
+      <c r="D16" s="14">
+        <v>34.885744156255512</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="14">
+        <v>6.3300705867289437</v>
+      </c>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="14">
+        <v>16.720388575112171</v>
+      </c>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="5">
+        <v>128.941140625</v>
+      </c>
+      <c r="AA16" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="14">
+        <v>11.73836346032553</v>
+      </c>
+      <c r="C17" s="14">
+        <v>22.868959922766212</v>
+      </c>
+      <c r="D17" s="14">
+        <v>61.374401604980186</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="14">
+        <v>1.2597259056615164</v>
+      </c>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="14">
+        <v>2.758549106266543</v>
+      </c>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="5">
+        <v>109.43831250000002</v>
+      </c>
+      <c r="AA17" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="14">
+        <v>12.475884430569824</v>
+      </c>
+      <c r="C18" s="14">
+        <v>24.983688928302868</v>
+      </c>
+      <c r="D18" s="14">
+        <v>56.715566328610478</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="14">
+        <v>1.6348081961025482</v>
+      </c>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="14">
+        <v>4.1900521164142726</v>
+      </c>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="5">
+        <v>112.09232812500002</v>
+      </c>
+      <c r="AA18" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="14">
+        <v>13.313600359968195</v>
+      </c>
+      <c r="C19" s="14">
+        <v>26.549667704892464</v>
+      </c>
+      <c r="D19" s="14">
+        <v>52.002597105947977</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="14">
+        <v>2.4198553875915132</v>
+      </c>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="14">
+        <v>5.7142794415998583</v>
+      </c>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="5">
+        <v>111.41517187499997</v>
+      </c>
+      <c r="AA19" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="14">
+        <v>14.04586286313179</v>
+      </c>
+      <c r="C20" s="14">
+        <v>26.990366089924294</v>
+      </c>
+      <c r="D20" s="14">
+        <v>46.904261024172257</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="14">
+        <v>3.607507573809785</v>
+      </c>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="14">
+        <v>8.452002448961867</v>
+      </c>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="5">
+        <v>117.25109374999997</v>
+      </c>
+      <c r="AA20" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="14">
+        <v>14.785969651778775</v>
+      </c>
+      <c r="C21" s="14">
+        <v>27.068709988041061</v>
+      </c>
+      <c r="D21" s="14">
+        <v>42.000364481792616</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="14">
+        <v>5.2857123160549495</v>
+      </c>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="14">
+        <v>10.859243562332601</v>
+      </c>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="5">
+        <v>130.39739062500001</v>
+      </c>
+      <c r="AA21" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="14">
+        <v>14.607500230082771</v>
+      </c>
+      <c r="C22" s="14">
+        <v>25.990445535654636</v>
+      </c>
+      <c r="D22" s="14">
+        <v>37.750479076450354</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="14">
+        <v>7.2921779632671937</v>
+      </c>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="14">
+        <v>14.359397194545034</v>
+      </c>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="5">
+        <v>130.0387890625</v>
+      </c>
+      <c r="AA22" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="14">
+        <v>13.936320179078795</v>
+      </c>
+      <c r="C23" s="14">
+        <v>24.364656760025934</v>
+      </c>
+      <c r="D23" s="14">
+        <v>32.877053022169903</v>
+      </c>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="14">
+        <v>10.517646963015226</v>
+      </c>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="14">
+        <v>18.304323075710137</v>
+      </c>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="5">
+        <v>147.91789843750001</v>
+      </c>
+      <c r="AA23" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="14">
+        <v>13.206078796707899</v>
+      </c>
+      <c r="C24" s="14">
+        <v>15.028323496456538</v>
+      </c>
+      <c r="D24" s="14">
+        <v>69.295492401424923</v>
+      </c>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="14">
+        <v>0.79774679512023805</v>
+      </c>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="14">
+        <v>1.6723585102903824</v>
+      </c>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
+      <c r="Z24" s="5">
+        <v>92.121679687500006</v>
+      </c>
+      <c r="AA24" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="14">
+        <v>14.43724685121477</v>
+      </c>
+      <c r="C25" s="14">
+        <v>17.465735934688716</v>
+      </c>
+      <c r="D25" s="14">
+        <v>64.410491028233935</v>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="14">
+        <v>1.20945092086888</v>
+      </c>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="14">
+        <v>2.4770752649936805</v>
+      </c>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="5">
+        <v>99.033406250000013</v>
+      </c>
+      <c r="AA25" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="14">
+        <v>15.775097573657954</v>
+      </c>
+      <c r="C26" s="14">
+        <v>19.461414719461384</v>
+      </c>
+      <c r="D26" s="14">
+        <v>59.479722921441969</v>
+      </c>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="14">
+        <v>1.7357885293934081</v>
+      </c>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="14">
+        <v>3.5479762560452923</v>
+      </c>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="5">
+        <v>104.75100781249998</v>
+      </c>
+      <c r="AA26" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="14">
+        <v>17.016435020581643</v>
+      </c>
+      <c r="C27" s="14">
+        <v>21.278381333811886</v>
+      </c>
+      <c r="D27" s="14">
+        <v>53.965035046755894</v>
+      </c>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="14">
+        <v>2.7705496781216969</v>
+      </c>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="14">
+        <v>4.9695989207288696</v>
+      </c>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="12"/>
+      <c r="Z27" s="5">
+        <v>105.10050781249998</v>
+      </c>
+      <c r="AA27" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="14">
+        <v>17.573247746623807</v>
+      </c>
+      <c r="C28" s="14">
+        <v>21.908547546250102</v>
+      </c>
+      <c r="D28" s="14">
+        <v>50.295690683261697</v>
+      </c>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="14">
+        <v>3.6951014114888396</v>
+      </c>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="14">
+        <v>6.5274126123755538</v>
+      </c>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="12"/>
+      <c r="Z28" s="5">
+        <v>120.23276562500004</v>
+      </c>
+      <c r="AA28" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="14">
+        <v>18.228228939410904</v>
+      </c>
+      <c r="C29" s="14">
+        <v>22.258254383993236</v>
+      </c>
+      <c r="D29" s="14">
+        <v>44.49254902780563</v>
+      </c>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="14">
+        <v>5.8969237904439185</v>
+      </c>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="14">
+        <v>9.124043858346317</v>
+      </c>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="12"/>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="12"/>
+      <c r="Z29" s="5">
+        <v>120.10352343749997</v>
+      </c>
+      <c r="AA29" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="14">
+        <v>18.051686775184805</v>
+      </c>
+      <c r="C30" s="14">
+        <v>21.543371683327845</v>
+      </c>
+      <c r="D30" s="14">
+        <v>40.146062943016794</v>
+      </c>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="14">
+        <v>8.2606171846713998</v>
+      </c>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="14">
+        <v>11.998261413799156</v>
+      </c>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="12"/>
+      <c r="Z30" s="5">
+        <v>127.8325703125</v>
+      </c>
+      <c r="AA30" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="14">
+        <v>17.303168297026076</v>
+      </c>
+      <c r="C31" s="14">
+        <v>20.30123682150807</v>
+      </c>
+      <c r="D31" s="14">
+        <v>35.00489144090659</v>
+      </c>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="14">
+        <v>11.769463669992971</v>
+      </c>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="14">
+        <v>15.62123977056628</v>
+      </c>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="12"/>
+      <c r="W31" s="12"/>
+      <c r="X31" s="12"/>
+      <c r="Y31" s="12"/>
+      <c r="Z31" s="5">
+        <v>141.224609375</v>
+      </c>
+      <c r="AA31" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="14">
+        <v>16.284216368980399</v>
+      </c>
+      <c r="C32" s="14">
+        <v>11.621089282206166</v>
+      </c>
+      <c r="D32" s="14">
+        <v>69.689007375649737</v>
+      </c>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="14">
+        <v>0.82099313887086223</v>
+      </c>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="14">
+        <v>1.5846938342928516</v>
+      </c>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
+      <c r="X32" s="12"/>
+      <c r="Y32" s="12"/>
+      <c r="Z32" s="5">
+        <v>86.138312499999955</v>
+      </c>
+      <c r="AA32" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="14">
+        <v>17.998596332710768</v>
+      </c>
+      <c r="C33" s="14">
+        <v>13.661505079693539</v>
+      </c>
+      <c r="D33" s="14">
+        <v>65.180103320954615</v>
+      </c>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="14">
+        <v>1.1778288250371536</v>
+      </c>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="14">
+        <v>1.9819664416039309</v>
+      </c>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="12"/>
+      <c r="W33" s="12"/>
+      <c r="X33" s="12"/>
+      <c r="Y33" s="12"/>
+      <c r="Z33" s="5">
+        <v>84.336203124999997</v>
+      </c>
+      <c r="AA33" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="14">
+        <v>19.536654744744531</v>
+      </c>
+      <c r="C34" s="14">
+        <v>15.082298939642239</v>
+      </c>
+      <c r="D34" s="14">
+        <v>60.567576891204688</v>
+      </c>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="14">
+        <v>1.8089890092529033</v>
+      </c>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="14">
+        <v>3.0044804151556295</v>
+      </c>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="12"/>
+      <c r="W34" s="12"/>
+      <c r="X34" s="12"/>
+      <c r="Y34" s="12"/>
+      <c r="Z34" s="5">
+        <v>101.0630546875</v>
+      </c>
+      <c r="AA34" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="14">
+        <v>21.180809580292038</v>
+      </c>
+      <c r="C35" s="14">
+        <v>16.418882767309871</v>
+      </c>
+      <c r="D35" s="14">
+        <v>55.497556047338094</v>
+      </c>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="14">
+        <v>2.7858210993691297</v>
+      </c>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="14">
+        <v>4.116930505690866</v>
+      </c>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="12"/>
+      <c r="W35" s="12"/>
+      <c r="X35" s="12"/>
+      <c r="Y35" s="12"/>
+      <c r="Z35" s="5">
+        <v>113.80706250000003</v>
+      </c>
+      <c r="AA35" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="14">
+        <v>22.361332388088631</v>
+      </c>
+      <c r="C36" s="14">
+        <v>17.687927187607979</v>
+      </c>
+      <c r="D36" s="14">
+        <v>50.019493215827858</v>
+      </c>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="14">
+        <v>4.251063367731021</v>
+      </c>
+      <c r="O36" s="15"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="14">
+        <v>5.6801838407445047</v>
+      </c>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="12"/>
+      <c r="W36" s="12"/>
+      <c r="X36" s="12"/>
+      <c r="Y36" s="12"/>
+      <c r="Z36" s="5">
+        <v>115.48539062499998</v>
+      </c>
+      <c r="AA36" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="14">
+        <v>22.255282678106148</v>
+      </c>
+      <c r="C37" s="14">
+        <v>18.131245692572133</v>
+      </c>
+      <c r="D37" s="14">
+        <v>45.945475012888707</v>
+      </c>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="14">
+        <v>6.1084697379585853</v>
+      </c>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="14">
+        <v>7.5595268784744301</v>
+      </c>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="12"/>
+      <c r="W37" s="12"/>
+      <c r="X37" s="12"/>
+      <c r="Y37" s="12"/>
+      <c r="Z37" s="5">
+        <v>122.5682265625</v>
+      </c>
+      <c r="AA37" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="14">
+        <v>22.118536966929085</v>
+      </c>
+      <c r="C38" s="14">
+        <v>17.718349538688813</v>
+      </c>
+      <c r="D38" s="14">
+        <v>41.152947474678463</v>
+      </c>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="14">
+        <v>9.1793563540157894</v>
+      </c>
+      <c r="O38" s="15"/>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="14">
+        <v>9.8308096656878465</v>
+      </c>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="12"/>
+      <c r="W38" s="12"/>
+      <c r="X38" s="12"/>
+      <c r="Y38" s="12"/>
+      <c r="Z38" s="5">
+        <v>127.6104921875</v>
+      </c>
+      <c r="AA38" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" s="14">
+        <v>21.135872395319392</v>
+      </c>
+      <c r="C39" s="14">
+        <v>17.347509830288864</v>
+      </c>
+      <c r="D39" s="14">
+        <v>36.110775551886945</v>
+      </c>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="14">
+        <v>13.249306864149085</v>
+      </c>
+      <c r="O39" s="15"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="14">
+        <v>12.156535358355718</v>
+      </c>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="12"/>
+      <c r="W39" s="12"/>
+      <c r="X39" s="12"/>
+      <c r="Y39" s="12"/>
+      <c r="Z39" s="5">
+        <v>144.66499999999996</v>
+      </c>
+      <c r="AA39" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="14">
+        <v>20.551682976882859</v>
+      </c>
+      <c r="C40" s="14">
+        <v>8.9055941542334391</v>
+      </c>
+      <c r="D40" s="14">
+        <v>68.382720109819132</v>
+      </c>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="14">
+        <v>0.87516229967201431</v>
+      </c>
+      <c r="O40" s="15"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="14">
+        <v>1.2848404593925526</v>
+      </c>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="12"/>
+      <c r="X40" s="12"/>
+      <c r="Y40" s="12"/>
+      <c r="Z40" s="5">
+        <v>84.039492187500002</v>
+      </c>
+      <c r="AA40" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" s="14">
+        <v>22.969342844450928</v>
+      </c>
+      <c r="C41" s="14">
+        <v>10.465621483441122</v>
+      </c>
+      <c r="D41" s="14">
+        <v>63.382715948063549</v>
+      </c>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="14">
+        <v>1.3463100531303407</v>
+      </c>
+      <c r="O41" s="15"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="14">
+        <v>1.8360096709140665</v>
+      </c>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="12"/>
+      <c r="W41" s="12"/>
+      <c r="X41" s="12"/>
+      <c r="Y41" s="12"/>
+      <c r="Z41" s="5">
+        <v>88.038718749999987</v>
+      </c>
+      <c r="AA41" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="14">
+        <v>24.409152508031269</v>
+      </c>
+      <c r="C42" s="14">
+        <v>11.68287684138104</v>
+      </c>
+      <c r="D42" s="14">
+        <v>59.447574493313013</v>
+      </c>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="14">
+        <v>1.9672677304065036</v>
+      </c>
+      <c r="O42" s="15"/>
+      <c r="P42" s="15"/>
+      <c r="Q42" s="14">
+        <v>2.4931284268681817</v>
+      </c>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="12"/>
+      <c r="W42" s="12"/>
+      <c r="X42" s="12"/>
+      <c r="Y42" s="12"/>
+      <c r="Z42" s="5">
+        <v>99.462999999999994</v>
+      </c>
+      <c r="AA42" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" s="14">
+        <v>26.081188099359498</v>
+      </c>
+      <c r="C43" s="14">
+        <v>12.829094615631536</v>
+      </c>
+      <c r="D43" s="14">
+        <v>54.719502758315954</v>
+      </c>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="14">
+        <v>2.8908449743981675</v>
+      </c>
+      <c r="O43" s="15"/>
+      <c r="P43" s="15"/>
+      <c r="Q43" s="14">
+        <v>3.4793695522948482</v>
+      </c>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12"/>
+      <c r="V43" s="12"/>
+      <c r="W43" s="12"/>
+      <c r="X43" s="12"/>
+      <c r="Y43" s="12"/>
+      <c r="Z43" s="5">
+        <v>110.09908593749998</v>
+      </c>
+      <c r="AA43" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" s="14">
+        <v>26.876147809049677</v>
+      </c>
+      <c r="C44" s="14">
+        <v>13.983895821306044</v>
+      </c>
+      <c r="D44" s="14">
+        <v>50.263005206558276</v>
+      </c>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
+      <c r="N44" s="14">
+        <v>4.2993611669656406</v>
+      </c>
+      <c r="O44" s="15"/>
+      <c r="P44" s="15"/>
+      <c r="Q44" s="14">
+        <v>4.5775899961203539</v>
+      </c>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="12"/>
+      <c r="V44" s="12"/>
+      <c r="W44" s="12"/>
+      <c r="X44" s="12"/>
+      <c r="Y44" s="12"/>
+      <c r="Z44" s="5">
+        <v>118.696421875</v>
+      </c>
+      <c r="AA44" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" s="14">
+        <v>27.166298734907716</v>
+      </c>
+      <c r="C45" s="14">
+        <v>14.124003456155737</v>
+      </c>
+      <c r="D45" s="14">
+        <v>45.954016051456158</v>
+      </c>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="15"/>
+      <c r="N45" s="14">
+        <v>6.3942079579757145</v>
+      </c>
+      <c r="O45" s="15"/>
+      <c r="P45" s="15"/>
+      <c r="Q45" s="14">
+        <v>6.3614737995046546</v>
+      </c>
+      <c r="R45" s="12"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="12"/>
+      <c r="V45" s="12"/>
+      <c r="W45" s="12"/>
+      <c r="X45" s="12"/>
+      <c r="Y45" s="12"/>
+      <c r="Z45" s="5">
+        <v>119.95607812499998</v>
+      </c>
+      <c r="AA45" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B46" s="14">
+        <v>27.255984735609719</v>
+      </c>
+      <c r="C46" s="14">
+        <v>14.633724565450343</v>
+      </c>
+      <c r="D46" s="14">
+        <v>40.355579866175454</v>
+      </c>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="14">
+        <v>9.3462194225109148</v>
+      </c>
+      <c r="O46" s="15"/>
+      <c r="P46" s="15"/>
+      <c r="Q46" s="14">
+        <v>8.4084914102535748</v>
+      </c>
+      <c r="R46" s="12"/>
+      <c r="S46" s="12"/>
+      <c r="T46" s="12"/>
+      <c r="U46" s="12"/>
+      <c r="V46" s="12"/>
+      <c r="W46" s="12"/>
+      <c r="X46" s="12"/>
+      <c r="Y46" s="12"/>
+      <c r="Z46" s="5">
+        <v>134.01981249999997</v>
+      </c>
+      <c r="AA46" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" s="14">
+        <v>26.046283328993454</v>
+      </c>
+      <c r="C47" s="14">
+        <v>13.617950252415048</v>
+      </c>
+      <c r="D47" s="14">
+        <v>36.008372395582896</v>
+      </c>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="14">
+        <v>14.072801662527715</v>
+      </c>
+      <c r="O47" s="15"/>
+      <c r="P47" s="15"/>
+      <c r="Q47" s="14">
+        <v>10.25459236048089</v>
+      </c>
+      <c r="R47" s="12"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="12"/>
+      <c r="U47" s="12"/>
+      <c r="V47" s="12"/>
+      <c r="W47" s="12"/>
+      <c r="X47" s="12"/>
+      <c r="Y47" s="12"/>
+      <c r="Z47" s="5">
+        <v>146.32876562500002</v>
+      </c>
+      <c r="AA47" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" s="14">
+        <v>25.611683765323196</v>
+      </c>
+      <c r="C48" s="14">
+        <v>6.8910031695883669</v>
+      </c>
+      <c r="D48" s="14">
+        <v>65.503925820172199</v>
+      </c>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="14">
+        <v>0.87321931563441368</v>
+      </c>
+      <c r="O48" s="15"/>
+      <c r="P48" s="15"/>
+      <c r="Q48" s="14">
+        <v>1.1201679292818238</v>
+      </c>
+      <c r="R48" s="12"/>
+      <c r="S48" s="12"/>
+      <c r="T48" s="12"/>
+      <c r="U48" s="12"/>
+      <c r="V48" s="12"/>
+      <c r="W48" s="12"/>
+      <c r="X48" s="12"/>
+      <c r="Y48" s="12"/>
+      <c r="Z48" s="5">
+        <v>86.871898437499993</v>
+      </c>
+      <c r="AA48" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B49" s="14">
+        <v>28.41067839248494</v>
+      </c>
+      <c r="C49" s="14">
+        <v>8.0448575919399214</v>
+      </c>
+      <c r="D49" s="14">
+        <v>60.643054606926682</v>
+      </c>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="14">
+        <v>1.2735385219478699</v>
+      </c>
+      <c r="O49" s="15"/>
+      <c r="P49" s="15"/>
+      <c r="Q49" s="14">
+        <v>1.6278708867005893</v>
+      </c>
+      <c r="R49" s="12"/>
+      <c r="S49" s="12"/>
+      <c r="T49" s="12"/>
+      <c r="U49" s="12"/>
+      <c r="V49" s="12"/>
+      <c r="W49" s="12"/>
+      <c r="X49" s="12"/>
+      <c r="Y49" s="12"/>
+      <c r="Z49" s="5">
+        <v>96.685203124999958</v>
+      </c>
+      <c r="AA49" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B50" s="14">
+        <v>30.680400319372371</v>
+      </c>
+      <c r="C50" s="14">
+        <v>8.8983149902297729</v>
+      </c>
+      <c r="D50" s="14">
+        <v>56.454974528229371</v>
+      </c>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="15"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="14">
+        <v>1.9492188906338432</v>
+      </c>
+      <c r="O50" s="15"/>
+      <c r="P50" s="15"/>
+      <c r="Q50" s="14">
+        <v>2.017091271534639</v>
+      </c>
+      <c r="R50" s="12"/>
+      <c r="S50" s="12"/>
+      <c r="T50" s="12"/>
+      <c r="U50" s="12"/>
+      <c r="V50" s="12"/>
+      <c r="W50" s="12"/>
+      <c r="X50" s="12"/>
+      <c r="Y50" s="12"/>
+      <c r="Z50" s="5">
+        <v>100.36769531249999</v>
+      </c>
+      <c r="AA50" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B51" s="14">
+        <v>32.347623677581183</v>
+      </c>
+      <c r="C51" s="14">
+        <v>9.9783666324428033</v>
+      </c>
+      <c r="D51" s="14">
+        <v>52.081321255891602</v>
+      </c>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="15"/>
+      <c r="N51" s="14">
+        <v>2.8431068379297022</v>
+      </c>
+      <c r="O51" s="15"/>
+      <c r="P51" s="15"/>
+      <c r="Q51" s="14">
+        <v>2.7495815961547194</v>
+      </c>
+      <c r="R51" s="12"/>
+      <c r="S51" s="12"/>
+      <c r="T51" s="12"/>
+      <c r="U51" s="12"/>
+      <c r="V51" s="12"/>
+      <c r="W51" s="12"/>
+      <c r="X51" s="12"/>
+      <c r="Y51" s="12"/>
+      <c r="Z51" s="5">
+        <v>107.83097656250001</v>
+      </c>
+      <c r="AA51" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B52" s="14">
+        <v>33.267124212356094</v>
+      </c>
+      <c r="C52" s="14">
+        <v>10.661782610034622</v>
+      </c>
+      <c r="D52" s="14">
+        <v>48.036496251556102</v>
+      </c>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="15"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="14">
+        <v>4.2322435364626321</v>
+      </c>
+      <c r="O52" s="15"/>
+      <c r="P52" s="15"/>
+      <c r="Q52" s="14">
+        <v>3.8023533895905453</v>
+      </c>
+      <c r="R52" s="12"/>
+      <c r="S52" s="12"/>
+      <c r="T52" s="12"/>
+      <c r="U52" s="12"/>
+      <c r="V52" s="12"/>
+      <c r="W52" s="12"/>
+      <c r="X52" s="12"/>
+      <c r="Y52" s="12"/>
+      <c r="Z52" s="5">
+        <v>110.94189062500001</v>
+      </c>
+      <c r="AA52" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B53" s="14">
+        <v>33.399252722319325</v>
+      </c>
+      <c r="C53" s="14">
+        <v>11.350067271850817</v>
+      </c>
+      <c r="D53" s="14">
+        <v>43.852455627753393</v>
+      </c>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="15"/>
+      <c r="M53" s="15"/>
+      <c r="N53" s="14">
+        <v>6.5453496128624211</v>
+      </c>
+      <c r="O53" s="15"/>
+      <c r="P53" s="15"/>
+      <c r="Q53" s="14">
+        <v>4.8528747652140298</v>
+      </c>
+      <c r="R53" s="12"/>
+      <c r="S53" s="12"/>
+      <c r="T53" s="12"/>
+      <c r="U53" s="12"/>
+      <c r="V53" s="12"/>
+      <c r="W53" s="12"/>
+      <c r="X53" s="12"/>
+      <c r="Y53" s="12"/>
+      <c r="Z53" s="5">
+        <v>119.50909027777777</v>
+      </c>
+      <c r="AA53" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B54" s="14">
+        <v>32.833854815173353</v>
+      </c>
+      <c r="C54" s="14">
+        <v>11.487250555300474</v>
+      </c>
+      <c r="D54" s="14">
+        <v>39.841701938731347</v>
+      </c>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="15"/>
+      <c r="L54" s="15"/>
+      <c r="M54" s="15"/>
+      <c r="N54" s="14">
+        <v>9.3482989417091567</v>
+      </c>
+      <c r="O54" s="15"/>
+      <c r="P54" s="15"/>
+      <c r="Q54" s="14">
+        <v>6.4888937490856655</v>
+      </c>
+      <c r="R54" s="12"/>
+      <c r="S54" s="12"/>
+      <c r="T54" s="12"/>
+      <c r="U54" s="12"/>
+      <c r="V54" s="12"/>
+      <c r="W54" s="12"/>
+      <c r="X54" s="12"/>
+      <c r="Y54" s="12"/>
+      <c r="Z54" s="5">
+        <v>121.79022500000002</v>
+      </c>
+      <c r="AA54" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B55" s="14">
+        <v>31.225878758049387</v>
+      </c>
+      <c r="C55" s="14">
+        <v>11.3685841516441</v>
+      </c>
+      <c r="D55" s="14">
+        <v>34.922323546792462</v>
+      </c>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="15"/>
+      <c r="L55" s="15"/>
+      <c r="M55" s="15"/>
+      <c r="N55" s="14">
+        <v>14.424627129291084</v>
+      </c>
+      <c r="O55" s="15"/>
+      <c r="P55" s="15"/>
+      <c r="Q55" s="14">
+        <v>8.0585864142229688</v>
+      </c>
+      <c r="R55" s="12"/>
+      <c r="S55" s="12"/>
+      <c r="T55" s="12"/>
+      <c r="U55" s="12"/>
+      <c r="V55" s="12"/>
+      <c r="W55" s="12"/>
+      <c r="X55" s="12"/>
+      <c r="Y55" s="12"/>
+      <c r="Z55" s="5">
+        <v>130.0410138888889</v>
+      </c>
+      <c r="AA55" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B56" s="14">
+        <v>32.758599927531613</v>
+      </c>
+      <c r="C56" s="14">
+        <v>5.5736654960309071</v>
+      </c>
+      <c r="D56" s="14">
+        <v>59.73922474830303</v>
+      </c>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="15"/>
+      <c r="M56" s="15"/>
+      <c r="N56" s="14">
+        <v>0.88935159508692818</v>
+      </c>
+      <c r="O56" s="15"/>
+      <c r="P56" s="15"/>
+      <c r="Q56" s="14">
+        <v>1.0391582330475257</v>
+      </c>
+      <c r="R56" s="12"/>
+      <c r="S56" s="12"/>
+      <c r="T56" s="12"/>
+      <c r="U56" s="12"/>
+      <c r="V56" s="12"/>
+      <c r="W56" s="12"/>
+      <c r="X56" s="12"/>
+      <c r="Y56" s="12"/>
+      <c r="Z56" s="5">
+        <v>91.504385714285689</v>
+      </c>
+      <c r="AA56" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B57" s="14">
+        <v>35.604545950638574</v>
+      </c>
+      <c r="C57" s="14">
+        <v>6.3842305366625194</v>
+      </c>
+      <c r="D57" s="14">
+        <v>55.411231985522846</v>
+      </c>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="15"/>
+      <c r="L57" s="15"/>
+      <c r="M57" s="15"/>
+      <c r="N57" s="14">
+        <v>1.2580868250611639</v>
+      </c>
+      <c r="O57" s="15"/>
+      <c r="P57" s="15"/>
+      <c r="Q57" s="14">
+        <v>1.3419047021148991</v>
+      </c>
+      <c r="R57" s="12"/>
+      <c r="S57" s="12"/>
+      <c r="T57" s="12"/>
+      <c r="U57" s="12"/>
+      <c r="V57" s="12"/>
+      <c r="W57" s="12"/>
+      <c r="X57" s="12"/>
+      <c r="Y57" s="12"/>
+      <c r="Z57" s="5">
+        <v>92.456010416666686</v>
+      </c>
+      <c r="AA57" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B58" s="14">
+        <v>38.138117895394643</v>
+      </c>
+      <c r="C58" s="14">
+        <v>6.9010937327539263</v>
+      </c>
+      <c r="D58" s="14">
+        <v>51.417999306835384</v>
+      </c>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="15"/>
+      <c r="M58" s="15"/>
+      <c r="N58" s="14">
+        <v>1.7528839340369251</v>
+      </c>
+      <c r="O58" s="15"/>
+      <c r="P58" s="15"/>
+      <c r="Q58" s="14">
+        <v>1.7899051309791196</v>
+      </c>
+      <c r="R58" s="12"/>
+      <c r="S58" s="12"/>
+      <c r="T58" s="12"/>
+      <c r="U58" s="12"/>
+      <c r="V58" s="12"/>
+      <c r="W58" s="12"/>
+      <c r="X58" s="12"/>
+      <c r="Y58" s="12"/>
+      <c r="Z58" s="5">
+        <v>97.655429687500003</v>
+      </c>
+      <c r="AA58" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B59" s="14">
+        <v>39.138005505917896</v>
+      </c>
+      <c r="C59" s="14">
+        <v>7.6360391018749345</v>
+      </c>
+      <c r="D59" s="14">
+        <v>48.265573546513409</v>
+      </c>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="15"/>
+      <c r="L59" s="15"/>
+      <c r="M59" s="15"/>
+      <c r="N59" s="14">
+        <v>2.646214637996664</v>
+      </c>
+      <c r="O59" s="15"/>
+      <c r="P59" s="15"/>
+      <c r="Q59" s="14">
+        <v>2.3141672076970843</v>
+      </c>
+      <c r="R59" s="12"/>
+      <c r="S59" s="12"/>
+      <c r="T59" s="12"/>
+      <c r="U59" s="12"/>
+      <c r="V59" s="12"/>
+      <c r="W59" s="12"/>
+      <c r="X59" s="12"/>
+      <c r="Y59" s="12"/>
+      <c r="Z59" s="5">
+        <v>98.472750000000019</v>
+      </c>
+      <c r="AA59" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B60" s="14">
+        <v>40.170077801048677</v>
+      </c>
+      <c r="C60" s="14">
+        <v>8.2706044002364205</v>
+      </c>
+      <c r="D60" s="14">
+        <v>44.39734559290023</v>
+      </c>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="15"/>
+      <c r="L60" s="15"/>
+      <c r="M60" s="15"/>
+      <c r="N60" s="14">
+        <v>4.1414605511040694</v>
+      </c>
+      <c r="O60" s="15"/>
+      <c r="P60" s="15"/>
+      <c r="Q60" s="14">
+        <v>3.0205116547106114</v>
+      </c>
+      <c r="R60" s="12"/>
+      <c r="S60" s="12"/>
+      <c r="T60" s="12"/>
+      <c r="U60" s="12"/>
+      <c r="V60" s="12"/>
+      <c r="W60" s="12"/>
+      <c r="X60" s="12"/>
+      <c r="Y60" s="12"/>
+      <c r="Z60" s="5">
+        <v>103.61735763888882</v>
+      </c>
+      <c r="AA60" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B61" s="14">
+        <v>40.317775203337838</v>
+      </c>
+      <c r="C61" s="14">
+        <v>8.6422776703661697</v>
+      </c>
+      <c r="D61" s="14">
+        <v>40.916612680279655</v>
+      </c>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="15"/>
+      <c r="N61" s="14">
+        <v>6.1717778732100932</v>
+      </c>
+      <c r="O61" s="15"/>
+      <c r="P61" s="15"/>
+      <c r="Q61" s="14">
+        <v>3.9515565728062287</v>
+      </c>
+      <c r="R61" s="12"/>
+      <c r="S61" s="12"/>
+      <c r="T61" s="12"/>
+      <c r="U61" s="12"/>
+      <c r="V61" s="12"/>
+      <c r="W61" s="12"/>
+      <c r="X61" s="12"/>
+      <c r="Y61" s="12"/>
+      <c r="Z61" s="5">
+        <v>119.13855555555557</v>
+      </c>
+      <c r="AA61" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B62" s="14">
+        <v>38.893286898587206</v>
+      </c>
+      <c r="C62" s="14">
+        <v>9.0763334036754433</v>
+      </c>
+      <c r="D62" s="14">
+        <v>37.845254770146404</v>
+      </c>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="15"/>
+      <c r="M62" s="15"/>
+      <c r="N62" s="14">
+        <v>9.3459305214341732</v>
+      </c>
+      <c r="O62" s="15"/>
+      <c r="P62" s="15"/>
+      <c r="Q62" s="14">
+        <v>4.8391944061567775</v>
+      </c>
+      <c r="R62" s="12"/>
+      <c r="S62" s="12"/>
+      <c r="T62" s="12"/>
+      <c r="U62" s="12"/>
+      <c r="V62" s="12"/>
+      <c r="W62" s="12"/>
+      <c r="X62" s="12"/>
+      <c r="Y62" s="12"/>
+      <c r="Z62" s="5">
+        <v>128.21665625000006</v>
+      </c>
+      <c r="AA62" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B63" s="14">
+        <v>36.034903945468521</v>
+      </c>
+      <c r="C63" s="14">
+        <v>9.5994105863956047</v>
+      </c>
+      <c r="D63" s="14">
+        <v>34.085592767654497</v>
+      </c>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="15"/>
+      <c r="L63" s="15"/>
+      <c r="M63" s="15"/>
+      <c r="N63" s="14">
+        <v>13.87879910761875</v>
+      </c>
+      <c r="O63" s="15"/>
+      <c r="P63" s="15"/>
+      <c r="Q63" s="14">
+        <v>6.401293592862622</v>
+      </c>
+      <c r="R63" s="12"/>
+      <c r="S63" s="12"/>
+      <c r="T63" s="12"/>
+      <c r="U63" s="12"/>
+      <c r="V63" s="12"/>
+      <c r="W63" s="12"/>
+      <c r="X63" s="12"/>
+      <c r="Y63" s="12"/>
+      <c r="Z63" s="5">
+        <v>129.48521180555556</v>
+      </c>
+      <c r="AA63" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B64" s="14">
+        <v>43.987682985983227</v>
+      </c>
+      <c r="C64" s="14">
+        <v>4.8618150039567762</v>
+      </c>
+      <c r="D64" s="14">
+        <v>48.805420619071391</v>
+      </c>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="15"/>
+      <c r="K64" s="15"/>
+      <c r="L64" s="15"/>
+      <c r="M64" s="15"/>
+      <c r="N64" s="14">
+        <v>1.1975040128740135</v>
+      </c>
+      <c r="O64" s="15"/>
+      <c r="P64" s="15"/>
+      <c r="Q64" s="14">
+        <v>1.1475773781146053</v>
+      </c>
+      <c r="R64" s="12"/>
+      <c r="S64" s="12"/>
+      <c r="T64" s="12"/>
+      <c r="U64" s="12"/>
+      <c r="V64" s="12"/>
+      <c r="W64" s="12"/>
+      <c r="X64" s="12"/>
+      <c r="Y64" s="12"/>
+      <c r="Z64" s="5">
+        <v>88.783024305555557</v>
+      </c>
+      <c r="AA64" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B65" s="14">
+        <v>45.700631711072703</v>
+      </c>
+      <c r="C65" s="14">
+        <v>5.2616695577119152</v>
+      </c>
+      <c r="D65" s="14">
+        <v>45.862443881372087</v>
+      </c>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="15"/>
+      <c r="K65" s="15"/>
+      <c r="L65" s="15"/>
+      <c r="M65" s="15"/>
+      <c r="N65" s="14">
+        <v>1.7750961180044333</v>
+      </c>
+      <c r="O65" s="15"/>
+      <c r="P65" s="15"/>
+      <c r="Q65" s="14">
+        <v>1.4001587318388644</v>
+      </c>
+      <c r="R65" s="12"/>
+      <c r="S65" s="12"/>
+      <c r="T65" s="12"/>
+      <c r="U65" s="12"/>
+      <c r="V65" s="12"/>
+      <c r="W65" s="12"/>
+      <c r="X65" s="12"/>
+      <c r="Y65" s="12"/>
+      <c r="Z65" s="5">
+        <v>98.362074999999976</v>
+      </c>
+      <c r="AA65" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B66" s="14">
+        <v>46.679656747814121</v>
+      </c>
+      <c r="C66" s="14">
+        <v>5.9600395804173996</v>
+      </c>
+      <c r="D66" s="14">
+        <v>42.953878242154339</v>
+      </c>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="15"/>
+      <c r="M66" s="15"/>
+      <c r="N66" s="14">
+        <v>2.6500786406412646</v>
+      </c>
+      <c r="O66" s="15"/>
+      <c r="P66" s="15"/>
+      <c r="Q66" s="14">
+        <v>1.7563467889728659</v>
+      </c>
+      <c r="R66" s="12"/>
+      <c r="S66" s="12"/>
+      <c r="T66" s="12"/>
+      <c r="U66" s="12"/>
+      <c r="V66" s="12"/>
+      <c r="W66" s="12"/>
+      <c r="X66" s="12"/>
+      <c r="Y66" s="12"/>
+      <c r="Z66" s="5">
+        <v>98.253827083333334</v>
+      </c>
+      <c r="AA66" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B67" s="14">
+        <v>47.539144486717191</v>
+      </c>
+      <c r="C67" s="14">
+        <v>6.4599606524271058</v>
+      </c>
+      <c r="D67" s="14">
+        <v>39.991895404786462</v>
+      </c>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="15"/>
+      <c r="K67" s="15"/>
+      <c r="L67" s="15"/>
+      <c r="M67" s="15"/>
+      <c r="N67" s="14">
+        <v>3.7144193675898025</v>
+      </c>
+      <c r="O67" s="15"/>
+      <c r="P67" s="15"/>
+      <c r="Q67" s="14">
+        <v>2.2945800884794356</v>
+      </c>
+      <c r="R67" s="12"/>
+      <c r="S67" s="12"/>
+      <c r="T67" s="12"/>
+      <c r="U67" s="12"/>
+      <c r="V67" s="12"/>
+      <c r="W67" s="12"/>
+      <c r="X67" s="12"/>
+      <c r="Y67" s="12"/>
+      <c r="Z67" s="5">
+        <v>97.926656249999979</v>
+      </c>
+      <c r="AA67" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B68" s="14">
+        <v>47.071216517774623</v>
+      </c>
+      <c r="C68" s="14">
+        <v>6.7078400581223745</v>
+      </c>
+      <c r="D68" s="14">
+        <v>37.182193082336887</v>
+      </c>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="15"/>
+      <c r="K68" s="15"/>
+      <c r="L68" s="15"/>
+      <c r="M68" s="15"/>
+      <c r="N68" s="14">
+        <v>5.9118988480751744</v>
+      </c>
+      <c r="O68" s="15"/>
+      <c r="P68" s="15"/>
+      <c r="Q68" s="14">
+        <v>3.1268514936909457</v>
+      </c>
+      <c r="R68" s="12"/>
+      <c r="S68" s="12"/>
+      <c r="T68" s="12"/>
+      <c r="U68" s="12"/>
+      <c r="V68" s="12"/>
+      <c r="W68" s="12"/>
+      <c r="X68" s="12"/>
+      <c r="Y68" s="12"/>
+      <c r="Z68" s="5">
+        <v>115.8512734375</v>
+      </c>
+      <c r="AA68" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B69" s="14">
+        <v>45.671565981301534</v>
+      </c>
+      <c r="C69" s="14">
+        <v>7.4208253151988037</v>
+      </c>
+      <c r="D69" s="14">
+        <v>34.196837358959201</v>
+      </c>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="15"/>
+      <c r="K69" s="15"/>
+      <c r="L69" s="15"/>
+      <c r="M69" s="15"/>
+      <c r="N69" s="14">
+        <v>8.668102187239116</v>
+      </c>
+      <c r="O69" s="15"/>
+      <c r="P69" s="15"/>
+      <c r="Q69" s="14">
+        <v>4.0426691573013489</v>
+      </c>
+      <c r="R69" s="12"/>
+      <c r="S69" s="12"/>
+      <c r="T69" s="12"/>
+      <c r="U69" s="12"/>
+      <c r="V69" s="12"/>
+      <c r="W69" s="12"/>
+      <c r="X69" s="12"/>
+      <c r="Y69" s="12"/>
+      <c r="Z69" s="5">
+        <v>123.4055703125</v>
+      </c>
+      <c r="AA69" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B70" s="14">
+        <v>42.511043409163186</v>
+      </c>
+      <c r="C70" s="14">
+        <v>7.2922419826904488</v>
+      </c>
+      <c r="D70" s="14">
+        <v>31.853740367302681</v>
+      </c>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="15"/>
+      <c r="K70" s="15"/>
+      <c r="L70" s="15"/>
+      <c r="M70" s="15"/>
+      <c r="N70" s="14">
+        <v>13.139013541355146</v>
+      </c>
+      <c r="O70" s="15"/>
+      <c r="P70" s="15"/>
+      <c r="Q70" s="14">
+        <v>5.2039606994885279</v>
+      </c>
+      <c r="R70" s="12"/>
+      <c r="S70" s="12"/>
+      <c r="T70" s="12"/>
+      <c r="U70" s="12"/>
+      <c r="V70" s="12"/>
+      <c r="W70" s="12"/>
+      <c r="X70" s="12"/>
+      <c r="Y70" s="12"/>
+      <c r="Z70" s="5">
+        <v>132.6600390625</v>
+      </c>
+      <c r="AA70" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B71" s="6">
+        <v>14.316993596570892</v>
+      </c>
+      <c r="C71" s="6">
+        <v>35.210247473885012</v>
+      </c>
+      <c r="D71" s="6">
+        <v>45.453037563811975</v>
+      </c>
+      <c r="E71" s="6">
+        <v>4.1389394564366615</v>
+      </c>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="12"/>
+      <c r="L71" s="12"/>
+      <c r="M71" s="12"/>
+      <c r="N71" s="12"/>
+      <c r="O71" s="12"/>
+      <c r="P71" s="6">
+        <v>0.88078190929546452</v>
+      </c>
+      <c r="Q71" s="12"/>
+      <c r="R71" s="12"/>
+      <c r="S71" s="12"/>
+      <c r="T71" s="12"/>
+      <c r="U71" s="12"/>
+      <c r="V71" s="12"/>
+      <c r="W71" s="12"/>
+      <c r="X71" s="12"/>
+      <c r="Y71" s="12"/>
+      <c r="Z71" s="5">
+        <v>134.47646266666663</v>
+      </c>
+      <c r="AA71" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B72" s="6">
+        <v>15.278910674208435</v>
+      </c>
+      <c r="C72" s="6">
+        <v>36.620145408873803</v>
+      </c>
+      <c r="D72" s="6">
+        <v>40.922556988370019</v>
+      </c>
+      <c r="E72" s="6">
+        <v>5.8763220256411834</v>
+      </c>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="12"/>
+      <c r="N72" s="12"/>
+      <c r="O72" s="12"/>
+      <c r="P72" s="6">
+        <v>1.3020649029065583</v>
+      </c>
+      <c r="Q72" s="12"/>
+      <c r="R72" s="12"/>
+      <c r="S72" s="12"/>
+      <c r="T72" s="12"/>
+      <c r="U72" s="12"/>
+      <c r="V72" s="12"/>
+      <c r="W72" s="12"/>
+      <c r="X72" s="12"/>
+      <c r="Y72" s="12"/>
+      <c r="Z72" s="5">
+        <v>145.70213555555557</v>
+      </c>
+      <c r="AA72" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B73" s="6">
+        <v>17.580230451103919</v>
+      </c>
+      <c r="C73" s="6">
+        <v>25.787373831253579</v>
+      </c>
+      <c r="D73" s="6">
+        <v>52.953402494521818</v>
+      </c>
+      <c r="E73" s="6">
+        <v>3.020229760012374</v>
+      </c>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12"/>
+      <c r="L73" s="12"/>
+      <c r="M73" s="12"/>
+      <c r="N73" s="12"/>
+      <c r="O73" s="12"/>
+      <c r="P73" s="6">
+        <v>0.65876346310829448</v>
+      </c>
+      <c r="Q73" s="12"/>
+      <c r="R73" s="12"/>
+      <c r="S73" s="12"/>
+      <c r="T73" s="12"/>
+      <c r="U73" s="12"/>
+      <c r="V73" s="12"/>
+      <c r="W73" s="12"/>
+      <c r="X73" s="12"/>
+      <c r="Y73" s="12"/>
+      <c r="Z73" s="5">
+        <v>108.76502955555556</v>
+      </c>
+      <c r="AA73" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B74" s="6">
+        <v>18.578180765280539</v>
+      </c>
+      <c r="C74" s="6">
+        <v>27.914361243760865</v>
+      </c>
+      <c r="D74" s="6">
+        <v>48.969390048921923</v>
+      </c>
+      <c r="E74" s="6">
+        <v>3.715176746073181</v>
+      </c>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12"/>
+      <c r="L74" s="12"/>
+      <c r="M74" s="12"/>
+      <c r="N74" s="12"/>
+      <c r="O74" s="12"/>
+      <c r="P74" s="6">
+        <v>0.82289119596347915</v>
+      </c>
+      <c r="Q74" s="12"/>
+      <c r="R74" s="12"/>
+      <c r="S74" s="12"/>
+      <c r="T74" s="12"/>
+      <c r="U74" s="12"/>
+      <c r="V74" s="12"/>
+      <c r="W74" s="12"/>
+      <c r="X74" s="12"/>
+      <c r="Y74" s="12"/>
+      <c r="Z74" s="5">
+        <v>124.17602607539682</v>
+      </c>
+      <c r="AA74" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B75" s="6">
+        <v>19.608382590755543</v>
+      </c>
+      <c r="C75" s="6">
+        <v>29.667545183887086</v>
+      </c>
+      <c r="D75" s="6">
+        <v>43.89614162525374</v>
+      </c>
+      <c r="E75" s="6">
+        <v>5.4403860410022302</v>
+      </c>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="12"/>
+      <c r="L75" s="12"/>
+      <c r="M75" s="12"/>
+      <c r="N75" s="12"/>
+      <c r="O75" s="12"/>
+      <c r="P75" s="6">
+        <v>1.3875445591014097</v>
+      </c>
+      <c r="Q75" s="12"/>
+      <c r="R75" s="12"/>
+      <c r="S75" s="12"/>
+      <c r="T75" s="12"/>
+      <c r="U75" s="12"/>
+      <c r="V75" s="12"/>
+      <c r="W75" s="12"/>
+      <c r="X75" s="12"/>
+      <c r="Y75" s="12"/>
+      <c r="Z75" s="5">
+        <v>124.50403185714286</v>
+      </c>
+      <c r="AA75" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B76" s="6">
+        <v>20.105002982107454</v>
+      </c>
+      <c r="C76" s="6">
+        <v>29.987298063565841</v>
+      </c>
+      <c r="D76" s="6">
+        <v>40.722309570953598</v>
+      </c>
+      <c r="E76" s="6">
+        <v>7.2265266815184583</v>
+      </c>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="12"/>
+      <c r="L76" s="12"/>
+      <c r="M76" s="12"/>
+      <c r="N76" s="12"/>
+      <c r="O76" s="12"/>
+      <c r="P76" s="6">
+        <v>1.9588627018546441</v>
+      </c>
+      <c r="Q76" s="12"/>
+      <c r="R76" s="12"/>
+      <c r="S76" s="12"/>
+      <c r="T76" s="12"/>
+      <c r="U76" s="12"/>
+      <c r="V76" s="12"/>
+      <c r="W76" s="12"/>
+      <c r="X76" s="12"/>
+      <c r="Y76" s="12"/>
+      <c r="Z76" s="5">
+        <v>136.19156929166661</v>
+      </c>
+      <c r="AA76" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B77" s="6">
+        <v>19.796970206920513</v>
+      </c>
+      <c r="C77" s="6">
+        <v>17.070530422593784</v>
+      </c>
+      <c r="D77" s="6">
+        <v>60.472744076941694</v>
+      </c>
+      <c r="E77" s="6">
+        <v>2.1277560370060002</v>
+      </c>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="12"/>
+      <c r="L77" s="12"/>
+      <c r="M77" s="12"/>
+      <c r="N77" s="12"/>
+      <c r="O77" s="12"/>
+      <c r="P77" s="6">
+        <v>0.53199925653800673</v>
+      </c>
+      <c r="Q77" s="12"/>
+      <c r="R77" s="12"/>
+      <c r="S77" s="12"/>
+      <c r="T77" s="12"/>
+      <c r="U77" s="12"/>
+      <c r="V77" s="12"/>
+      <c r="W77" s="12"/>
+      <c r="X77" s="12"/>
+      <c r="Y77" s="12"/>
+      <c r="Z77" s="5">
+        <v>88.007030111111121</v>
+      </c>
+      <c r="AA77" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B78" s="6">
+        <v>21.482034433271288</v>
+      </c>
+      <c r="C78" s="6">
+        <v>19.819637007454737</v>
+      </c>
+      <c r="D78" s="6">
+        <v>55.110199869419077</v>
+      </c>
+      <c r="E78" s="6">
+        <v>2.9524381893140621</v>
+      </c>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="12"/>
+      <c r="L78" s="12"/>
+      <c r="M78" s="12"/>
+      <c r="N78" s="12"/>
+      <c r="O78" s="12"/>
+      <c r="P78" s="6">
+        <v>0.63569050054082665</v>
+      </c>
+      <c r="Q78" s="12"/>
+      <c r="R78" s="12"/>
+      <c r="S78" s="12"/>
+      <c r="T78" s="12"/>
+      <c r="U78" s="12"/>
+      <c r="V78" s="12"/>
+      <c r="W78" s="12"/>
+      <c r="X78" s="12"/>
+      <c r="Y78" s="12"/>
+      <c r="Z78" s="5">
+        <v>105.82145555555552</v>
+      </c>
+      <c r="AA78" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B79" s="6">
+        <v>22.476316227386324</v>
+      </c>
+      <c r="C79" s="6">
+        <v>21.107630415516439</v>
+      </c>
+      <c r="D79" s="6">
+        <v>49.485548791620865</v>
+      </c>
+      <c r="E79" s="6">
+        <v>5.8086872595372503</v>
+      </c>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="12"/>
+      <c r="K79" s="12"/>
+      <c r="L79" s="12"/>
+      <c r="M79" s="12"/>
+      <c r="N79" s="12"/>
+      <c r="O79" s="12"/>
+      <c r="P79" s="6">
+        <v>1.1218173059391117</v>
+      </c>
+      <c r="Q79" s="12"/>
+      <c r="R79" s="12"/>
+      <c r="S79" s="12"/>
+      <c r="T79" s="12"/>
+      <c r="U79" s="12"/>
+      <c r="V79" s="12"/>
+      <c r="W79" s="12"/>
+      <c r="X79" s="12"/>
+      <c r="Y79" s="12"/>
+      <c r="Z79" s="5">
+        <v>128.95858022222222</v>
+      </c>
+      <c r="AA79" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B80" s="6">
+        <v>24.357632443181828</v>
+      </c>
+      <c r="C80" s="6">
+        <v>23.134276250051503</v>
+      </c>
+      <c r="D80" s="6">
+        <v>46.367880049688054</v>
+      </c>
+      <c r="E80" s="6">
+        <v>4.6383148626112414</v>
+      </c>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="12"/>
+      <c r="K80" s="12"/>
+      <c r="L80" s="12"/>
+      <c r="M80" s="12"/>
+      <c r="N80" s="12"/>
+      <c r="O80" s="12"/>
+      <c r="P80" s="6">
+        <v>1.5018963944673698</v>
+      </c>
+      <c r="Q80" s="12"/>
+      <c r="R80" s="12"/>
+      <c r="S80" s="12"/>
+      <c r="T80" s="12"/>
+      <c r="U80" s="12"/>
+      <c r="V80" s="12"/>
+      <c r="W80" s="12"/>
+      <c r="X80" s="12"/>
+      <c r="Y80" s="12"/>
+      <c r="Z80" s="5">
+        <v>132.47715344444441</v>
+      </c>
+      <c r="AA80" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B81" s="6">
+        <v>25.620642367974451</v>
+      </c>
+      <c r="C81" s="6">
+        <v>24.036244595854875</v>
+      </c>
+      <c r="D81" s="6">
+        <v>41.978130697288726</v>
+      </c>
+      <c r="E81" s="6">
+        <v>6.3261791213945386</v>
+      </c>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="12"/>
+      <c r="J81" s="12"/>
+      <c r="K81" s="12"/>
+      <c r="L81" s="12"/>
+      <c r="M81" s="12"/>
+      <c r="N81" s="12"/>
+      <c r="O81" s="12"/>
+      <c r="P81" s="6">
+        <v>2.038803217487418</v>
+      </c>
+      <c r="Q81" s="12"/>
+      <c r="R81" s="12"/>
+      <c r="S81" s="12"/>
+      <c r="T81" s="12"/>
+      <c r="U81" s="12"/>
+      <c r="V81" s="12"/>
+      <c r="W81" s="12"/>
+      <c r="X81" s="12"/>
+      <c r="Y81" s="12"/>
+      <c r="Z81" s="5">
+        <v>152.56519966666667</v>
+      </c>
+      <c r="AA81" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B82" s="6">
+        <v>25.929677094754993</v>
+      </c>
+      <c r="C82" s="6">
+        <v>24.052153055231656</v>
+      </c>
+      <c r="D82" s="6">
+        <v>38.377675367989717</v>
+      </c>
+      <c r="E82" s="6">
+        <v>8.2419165870259015</v>
+      </c>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="12"/>
+      <c r="K82" s="12"/>
+      <c r="L82" s="12"/>
+      <c r="M82" s="12"/>
+      <c r="N82" s="12"/>
+      <c r="O82" s="12"/>
+      <c r="P82" s="6">
+        <v>3.3985778949977301</v>
+      </c>
+      <c r="Q82" s="12"/>
+      <c r="R82" s="12"/>
+      <c r="S82" s="12"/>
+      <c r="T82" s="12"/>
+      <c r="U82" s="12"/>
+      <c r="V82" s="12"/>
+      <c r="W82" s="12"/>
+      <c r="X82" s="12"/>
+      <c r="Y82" s="12"/>
+      <c r="Z82" s="5">
+        <v>172.79831449999989</v>
+      </c>
+      <c r="AA82" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="83" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B83" s="6">
+        <v>24.69862396067251</v>
+      </c>
+      <c r="C83" s="6">
+        <v>12.946773609814139</v>
+      </c>
+      <c r="D83" s="6">
+        <v>59.786052657728931</v>
+      </c>
+      <c r="E83" s="6">
+        <v>2.0714580631682193</v>
+      </c>
+      <c r="F83" s="12"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="12"/>
+      <c r="J83" s="12"/>
+      <c r="K83" s="12"/>
+      <c r="L83" s="12"/>
+      <c r="M83" s="12"/>
+      <c r="N83" s="12"/>
+      <c r="O83" s="12"/>
+      <c r="P83" s="6">
+        <v>0.4970917086162015</v>
+      </c>
+      <c r="Q83" s="12"/>
+      <c r="R83" s="12"/>
+      <c r="S83" s="12"/>
+      <c r="T83" s="12"/>
+      <c r="U83" s="12"/>
+      <c r="V83" s="12"/>
+      <c r="W83" s="12"/>
+      <c r="X83" s="12"/>
+      <c r="Y83" s="12"/>
+      <c r="Z83" s="5">
+        <v>95.513671333333363</v>
+      </c>
+      <c r="AA83" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="84" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B84" s="6">
+        <v>27.116290876100162</v>
+      </c>
+      <c r="C84" s="6">
+        <v>14.621698991856924</v>
+      </c>
+      <c r="D84" s="6">
+        <v>55.255972396814748</v>
+      </c>
+      <c r="E84" s="6">
+        <v>2.2957335127319114</v>
+      </c>
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="12"/>
+      <c r="J84" s="12"/>
+      <c r="K84" s="12"/>
+      <c r="L84" s="12"/>
+      <c r="M84" s="12"/>
+      <c r="N84" s="12"/>
+      <c r="O84" s="12"/>
+      <c r="P84" s="6">
+        <v>0.71030422249626746</v>
+      </c>
+      <c r="Q84" s="12"/>
+      <c r="R84" s="12"/>
+      <c r="S84" s="12"/>
+      <c r="T84" s="12"/>
+      <c r="U84" s="12"/>
+      <c r="V84" s="12"/>
+      <c r="W84" s="12"/>
+      <c r="X84" s="12"/>
+      <c r="Y84" s="12"/>
+      <c r="Z84" s="5">
+        <v>103.86058009523806</v>
+      </c>
+      <c r="AA84" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="85" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B85" s="6">
+        <v>28.979956917339951</v>
+      </c>
+      <c r="C85" s="6">
+        <v>16.443957138123448</v>
+      </c>
+      <c r="D85" s="6">
+        <v>50.353278319115624</v>
+      </c>
+      <c r="E85" s="6">
+        <v>3.1850063753506235</v>
+      </c>
+      <c r="F85" s="12"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="12"/>
+      <c r="I85" s="12"/>
+      <c r="J85" s="12"/>
+      <c r="K85" s="12"/>
+      <c r="L85" s="12"/>
+      <c r="M85" s="12"/>
+      <c r="N85" s="12"/>
+      <c r="O85" s="12"/>
+      <c r="P85" s="6">
+        <v>1.0378012500703599</v>
+      </c>
+      <c r="Q85" s="12"/>
+      <c r="R85" s="12"/>
+      <c r="S85" s="12"/>
+      <c r="T85" s="12"/>
+      <c r="U85" s="12"/>
+      <c r="V85" s="12"/>
+      <c r="W85" s="12"/>
+      <c r="X85" s="12"/>
+      <c r="Y85" s="12"/>
+      <c r="Z85" s="5">
+        <v>118.56262442857137</v>
+      </c>
+      <c r="AA85" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="86" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B86" s="6">
+        <v>30.34265377319738</v>
+      </c>
+      <c r="C86" s="6">
+        <v>17.804743396146918</v>
+      </c>
+      <c r="D86" s="6">
+        <v>46.348595706435155</v>
+      </c>
+      <c r="E86" s="6">
+        <v>4.073004266397291</v>
+      </c>
+      <c r="F86" s="12"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="12"/>
+      <c r="J86" s="12"/>
+      <c r="K86" s="12"/>
+      <c r="L86" s="12"/>
+      <c r="M86" s="12"/>
+      <c r="N86" s="12"/>
+      <c r="O86" s="12"/>
+      <c r="P86" s="6">
+        <v>1.4310028578232434</v>
+      </c>
+      <c r="Q86" s="12"/>
+      <c r="R86" s="12"/>
+      <c r="S86" s="12"/>
+      <c r="T86" s="12"/>
+      <c r="U86" s="12"/>
+      <c r="V86" s="12"/>
+      <c r="W86" s="12"/>
+      <c r="X86" s="12"/>
+      <c r="Y86" s="12"/>
+      <c r="Z86" s="5">
+        <v>137.20073814285718</v>
+      </c>
+      <c r="AA86" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="87" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B87" s="6">
+        <v>31.865287134499958</v>
+      </c>
+      <c r="C87" s="6">
+        <v>18.236967158783955</v>
+      </c>
+      <c r="D87" s="6">
+        <v>42.400931486841152</v>
+      </c>
+      <c r="E87" s="6">
+        <v>5.2902060156572546</v>
+      </c>
+      <c r="F87" s="12"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="12"/>
+      <c r="J87" s="12"/>
+      <c r="K87" s="12"/>
+      <c r="L87" s="12"/>
+      <c r="M87" s="12"/>
+      <c r="N87" s="12"/>
+      <c r="O87" s="12"/>
+      <c r="P87" s="6">
+        <v>2.2066082042176736</v>
+      </c>
+      <c r="Q87" s="12"/>
+      <c r="R87" s="12"/>
+      <c r="S87" s="12"/>
+      <c r="T87" s="12"/>
+      <c r="U87" s="12"/>
+      <c r="V87" s="12"/>
+      <c r="W87" s="12"/>
+      <c r="X87" s="12"/>
+      <c r="Y87" s="12"/>
+      <c r="Z87" s="5">
+        <v>146.29427924999999</v>
+      </c>
+      <c r="AA87" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="88" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B88" s="6">
+        <v>31.701392371572148</v>
+      </c>
+      <c r="C88" s="6">
+        <v>19.104235706362264</v>
+      </c>
+      <c r="D88" s="6">
+        <v>38.632917806690905</v>
+      </c>
+      <c r="E88" s="6">
+        <v>7.0165794419700518</v>
+      </c>
+      <c r="F88" s="12"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="12"/>
+      <c r="J88" s="12"/>
+      <c r="K88" s="12"/>
+      <c r="L88" s="12"/>
+      <c r="M88" s="12"/>
+      <c r="N88" s="12"/>
+      <c r="O88" s="12"/>
+      <c r="P88" s="6">
+        <v>3.544874673404641</v>
+      </c>
+      <c r="Q88" s="12"/>
+      <c r="R88" s="12"/>
+      <c r="S88" s="12"/>
+      <c r="T88" s="12"/>
+      <c r="U88" s="12"/>
+      <c r="V88" s="12"/>
+      <c r="W88" s="12"/>
+      <c r="X88" s="12"/>
+      <c r="Y88" s="12"/>
+      <c r="Z88" s="5">
+        <v>155.30304000000001</v>
+      </c>
+      <c r="AA88" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="89" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B89" s="6">
+        <v>30.377828385678836</v>
+      </c>
+      <c r="C89" s="6">
+        <v>9.6093601490622564</v>
+      </c>
+      <c r="D89" s="6">
+        <v>57.919330658562352</v>
+      </c>
+      <c r="E89" s="6">
+        <v>1.5890631421195147</v>
+      </c>
+      <c r="F89" s="12"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="12"/>
+      <c r="I89" s="12"/>
+      <c r="J89" s="12"/>
+      <c r="K89" s="12"/>
+      <c r="L89" s="12"/>
+      <c r="M89" s="12"/>
+      <c r="N89" s="12"/>
+      <c r="O89" s="12"/>
+      <c r="P89" s="6">
+        <v>0.50441766457703774</v>
+      </c>
+      <c r="Q89" s="12"/>
+      <c r="R89" s="12"/>
+      <c r="S89" s="12"/>
+      <c r="T89" s="12"/>
+      <c r="U89" s="12"/>
+      <c r="V89" s="12"/>
+      <c r="W89" s="12"/>
+      <c r="X89" s="12"/>
+      <c r="Y89" s="12"/>
+      <c r="Z89" s="5">
+        <v>83.81322844444442</v>
+      </c>
+      <c r="AA89" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="90" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B90" s="6">
+        <v>33.116593793899071</v>
+      </c>
+      <c r="C90" s="6">
+        <v>10.973333777345996</v>
+      </c>
+      <c r="D90" s="6">
+        <v>52.925169790150598</v>
+      </c>
+      <c r="E90" s="6">
+        <v>2.1920651547342422</v>
+      </c>
+      <c r="F90" s="12"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="12"/>
+      <c r="I90" s="12"/>
+      <c r="J90" s="12"/>
+      <c r="K90" s="12"/>
+      <c r="L90" s="12"/>
+      <c r="M90" s="12"/>
+      <c r="N90" s="12"/>
+      <c r="O90" s="12"/>
+      <c r="P90" s="6">
+        <v>0.79283748387008679</v>
+      </c>
+      <c r="Q90" s="12"/>
+      <c r="R90" s="12"/>
+      <c r="S90" s="12"/>
+      <c r="T90" s="12"/>
+      <c r="U90" s="12"/>
+      <c r="V90" s="12"/>
+      <c r="W90" s="12"/>
+      <c r="X90" s="12"/>
+      <c r="Y90" s="12"/>
+      <c r="Z90" s="5">
+        <v>105.18767528571429</v>
+      </c>
+      <c r="AA90" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="91" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B91" s="6">
+        <v>35.405047694403095</v>
+      </c>
+      <c r="C91" s="6">
+        <v>12.259670623017648</v>
+      </c>
+      <c r="D91" s="6">
+        <v>48.281909615002647</v>
+      </c>
+      <c r="E91" s="6">
+        <v>2.9490806215697956</v>
+      </c>
+      <c r="F91" s="12"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="12"/>
+      <c r="J91" s="12"/>
+      <c r="K91" s="12"/>
+      <c r="L91" s="12"/>
+      <c r="M91" s="12"/>
+      <c r="N91" s="12"/>
+      <c r="O91" s="12"/>
+      <c r="P91" s="6">
+        <v>1.1042914460068263</v>
+      </c>
+      <c r="Q91" s="12"/>
+      <c r="R91" s="12"/>
+      <c r="S91" s="12"/>
+      <c r="T91" s="12"/>
+      <c r="U91" s="12"/>
+      <c r="V91" s="12"/>
+      <c r="W91" s="12"/>
+      <c r="X91" s="12"/>
+      <c r="Y91" s="12"/>
+      <c r="Z91" s="5">
+        <v>110.484752</v>
+      </c>
+      <c r="AA91" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="92" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B92" s="6">
+        <v>37.577643895181239</v>
+      </c>
+      <c r="C92" s="6">
+        <v>12.904572931936103</v>
+      </c>
+      <c r="D92" s="6">
+        <v>44.213109517604622</v>
+      </c>
+      <c r="E92" s="6">
+        <v>3.6386808883163408</v>
+      </c>
+      <c r="F92" s="12"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="12"/>
+      <c r="I92" s="12"/>
+      <c r="J92" s="12"/>
+      <c r="K92" s="12"/>
+      <c r="L92" s="12"/>
+      <c r="M92" s="12"/>
+      <c r="N92" s="12"/>
+      <c r="O92" s="12"/>
+      <c r="P92" s="6">
+        <v>1.6659927669616954</v>
+      </c>
+      <c r="Q92" s="12"/>
+      <c r="R92" s="12"/>
+      <c r="S92" s="12"/>
+      <c r="T92" s="12"/>
+      <c r="U92" s="12"/>
+      <c r="V92" s="12"/>
+      <c r="W92" s="12"/>
+      <c r="X92" s="12"/>
+      <c r="Y92" s="12"/>
+      <c r="Z92" s="5">
+        <v>122.95537733333329</v>
+      </c>
+      <c r="AA92" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="93" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B93" s="6">
+        <v>38.091156089076563</v>
+      </c>
+      <c r="C93" s="6">
+        <v>14.240771696429016</v>
+      </c>
+      <c r="D93" s="6">
+        <v>40.341179427010623</v>
+      </c>
+      <c r="E93" s="6">
+        <v>4.8200917289271361</v>
+      </c>
+      <c r="F93" s="12"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="12"/>
+      <c r="I93" s="12"/>
+      <c r="J93" s="12"/>
+      <c r="K93" s="12"/>
+      <c r="L93" s="12"/>
+      <c r="M93" s="12"/>
+      <c r="N93" s="12"/>
+      <c r="O93" s="12"/>
+      <c r="P93" s="6">
+        <v>2.5068010585566696</v>
+      </c>
+      <c r="Q93" s="12"/>
+      <c r="R93" s="12"/>
+      <c r="S93" s="12"/>
+      <c r="T93" s="12"/>
+      <c r="U93" s="12"/>
+      <c r="V93" s="12"/>
+      <c r="W93" s="12"/>
+      <c r="X93" s="12"/>
+      <c r="Y93" s="12"/>
+      <c r="Z93" s="5">
+        <v>133.00071924999997</v>
+      </c>
+      <c r="AA93" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="94" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B94" s="6">
+        <v>38.33579750611559</v>
+      </c>
+      <c r="C94" s="6">
+        <v>14.223104733374814</v>
+      </c>
+      <c r="D94" s="6">
+        <v>37.734588607993082</v>
+      </c>
+      <c r="E94" s="6">
+        <v>6.0845026286779538</v>
+      </c>
+      <c r="F94" s="12"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="12"/>
+      <c r="I94" s="12"/>
+      <c r="J94" s="12"/>
+      <c r="K94" s="12"/>
+      <c r="L94" s="12"/>
+      <c r="M94" s="12"/>
+      <c r="N94" s="12"/>
+      <c r="O94" s="12"/>
+      <c r="P94" s="6">
+        <v>3.6220065238385737</v>
+      </c>
+      <c r="Q94" s="12"/>
+      <c r="R94" s="12"/>
+      <c r="S94" s="12"/>
+      <c r="T94" s="12"/>
+      <c r="U94" s="12"/>
+      <c r="V94" s="12"/>
+      <c r="W94" s="12"/>
+      <c r="X94" s="12"/>
+      <c r="Y94" s="12"/>
+      <c r="Z94" s="5">
+        <v>155.96771800000005</v>
+      </c>
+      <c r="AA94" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="95" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B95" s="6">
+        <v>37.588639224922467</v>
+      </c>
+      <c r="C95" s="6">
+        <v>7.2806695397855989</v>
+      </c>
+      <c r="D95" s="6">
+        <v>53.117989626832085</v>
+      </c>
+      <c r="E95" s="6">
+        <v>1.5324283985842471</v>
+      </c>
+      <c r="F95" s="12"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="12"/>
+      <c r="I95" s="12"/>
+      <c r="J95" s="12"/>
+      <c r="K95" s="12"/>
+      <c r="L95" s="12"/>
+      <c r="M95" s="12"/>
+      <c r="N95" s="12"/>
+      <c r="O95" s="12"/>
+      <c r="P95" s="6">
+        <v>0.48027320987560718</v>
+      </c>
+      <c r="Q95" s="12"/>
+      <c r="R95" s="12"/>
+      <c r="S95" s="12"/>
+      <c r="T95" s="12"/>
+      <c r="U95" s="12"/>
+      <c r="V95" s="12"/>
+      <c r="W95" s="12"/>
+      <c r="X95" s="12"/>
+      <c r="Y95" s="12"/>
+      <c r="Z95" s="5">
+        <v>90.929503222222181</v>
+      </c>
+      <c r="AA95" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="96" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B96" s="6">
+        <v>40.468542795854702</v>
+      </c>
+      <c r="C96" s="6">
+        <v>8.2077548285133286</v>
+      </c>
+      <c r="D96" s="6">
+        <v>48.681959667787602</v>
+      </c>
+      <c r="E96" s="6">
+        <v>1.9600662483945475</v>
+      </c>
+      <c r="F96" s="12"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="12"/>
+      <c r="I96" s="12"/>
+      <c r="J96" s="12"/>
+      <c r="K96" s="12"/>
+      <c r="L96" s="12"/>
+      <c r="M96" s="12"/>
+      <c r="N96" s="12"/>
+      <c r="O96" s="12"/>
+      <c r="P96" s="6">
+        <v>0.68167645944982125</v>
+      </c>
+      <c r="Q96" s="12"/>
+      <c r="R96" s="12"/>
+      <c r="S96" s="12"/>
+      <c r="T96" s="12"/>
+      <c r="U96" s="12"/>
+      <c r="V96" s="12"/>
+      <c r="W96" s="12"/>
+      <c r="X96" s="12"/>
+      <c r="Y96" s="12"/>
+      <c r="Z96" s="5">
+        <v>107.59920544444445</v>
+      </c>
+      <c r="AA96" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="97" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B97" s="6">
+        <v>42.413659996343085</v>
+      </c>
+      <c r="C97" s="6">
+        <v>8.9990939890156838</v>
+      </c>
+      <c r="D97" s="6">
+        <v>45.398683937155667</v>
+      </c>
+      <c r="E97" s="6">
+        <v>2.2329709900078836</v>
+      </c>
+      <c r="F97" s="12"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="12"/>
+      <c r="J97" s="12"/>
+      <c r="K97" s="12"/>
+      <c r="L97" s="12"/>
+      <c r="M97" s="12"/>
+      <c r="N97" s="12"/>
+      <c r="O97" s="12"/>
+      <c r="P97" s="6">
+        <v>0.95559108747768806</v>
+      </c>
+      <c r="Q97" s="12"/>
+      <c r="R97" s="12"/>
+      <c r="S97" s="12"/>
+      <c r="T97" s="12"/>
+      <c r="U97" s="12"/>
+      <c r="V97" s="12"/>
+      <c r="W97" s="12"/>
+      <c r="X97" s="12"/>
+      <c r="Y97" s="12"/>
+      <c r="Z97" s="5">
+        <v>106.69789604761901</v>
+      </c>
+      <c r="AA97" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="98" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B98" s="6">
+        <v>44.050567008948342</v>
+      </c>
+      <c r="C98" s="6">
+        <v>9.8906774958930939</v>
+      </c>
+      <c r="D98" s="6">
+        <v>40.971138504932803</v>
+      </c>
+      <c r="E98" s="6">
+        <v>3.5829624797120978</v>
+      </c>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="12"/>
+      <c r="I98" s="12"/>
+      <c r="J98" s="12"/>
+      <c r="K98" s="12"/>
+      <c r="L98" s="12"/>
+      <c r="M98" s="12"/>
+      <c r="N98" s="12"/>
+      <c r="O98" s="12"/>
+      <c r="P98" s="6">
+        <v>1.5046545105136639</v>
+      </c>
+      <c r="Q98" s="12"/>
+      <c r="R98" s="12"/>
+      <c r="S98" s="12"/>
+      <c r="T98" s="12"/>
+      <c r="U98" s="12"/>
+      <c r="V98" s="12"/>
+      <c r="W98" s="12"/>
+      <c r="X98" s="12"/>
+      <c r="Y98" s="12"/>
+      <c r="Z98" s="5">
+        <v>116.06442990476195</v>
+      </c>
+      <c r="AA98" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="99" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B99" s="6">
+        <v>45.285273614755035</v>
+      </c>
+      <c r="C99" s="6">
+        <v>10.450169410214034</v>
+      </c>
+      <c r="D99" s="6">
+        <v>38.055540801011638</v>
+      </c>
+      <c r="E99" s="6">
+        <v>4.0576053116735604</v>
+      </c>
+      <c r="F99" s="12"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="12"/>
+      <c r="I99" s="12"/>
+      <c r="J99" s="12"/>
+      <c r="K99" s="12"/>
+      <c r="L99" s="12"/>
+      <c r="M99" s="12"/>
+      <c r="N99" s="12"/>
+      <c r="O99" s="12"/>
+      <c r="P99" s="6">
+        <v>2.1514108623457431</v>
+      </c>
+      <c r="Q99" s="12"/>
+      <c r="R99" s="12"/>
+      <c r="S99" s="12"/>
+      <c r="T99" s="12"/>
+      <c r="U99" s="12"/>
+      <c r="V99" s="12"/>
+      <c r="W99" s="12"/>
+      <c r="X99" s="12"/>
+      <c r="Y99" s="12"/>
+      <c r="Z99" s="5">
+        <v>120.29468712499995</v>
+      </c>
+      <c r="AA99" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="100" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B100" s="6">
+        <v>45.114152232226253</v>
+      </c>
+      <c r="C100" s="6">
+        <v>10.886782105200046</v>
+      </c>
+      <c r="D100" s="6">
+        <v>35.433404437611436</v>
+      </c>
+      <c r="E100" s="6">
+        <v>5.1056033037050241</v>
+      </c>
+      <c r="F100" s="12"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="12"/>
+      <c r="I100" s="12"/>
+      <c r="J100" s="12"/>
+      <c r="K100" s="12"/>
+      <c r="L100" s="12"/>
+      <c r="M100" s="12"/>
+      <c r="N100" s="12"/>
+      <c r="O100" s="12"/>
+      <c r="P100" s="6">
+        <v>3.4600579212572362</v>
+      </c>
+      <c r="Q100" s="12"/>
+      <c r="R100" s="12"/>
+      <c r="S100" s="12"/>
+      <c r="T100" s="12"/>
+      <c r="U100" s="12"/>
+      <c r="V100" s="12"/>
+      <c r="W100" s="12"/>
+      <c r="X100" s="12"/>
+      <c r="Y100" s="12"/>
+      <c r="Z100" s="5">
+        <v>170.06838699999997</v>
+      </c>
+      <c r="AA100" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="101" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B101" s="6">
+        <v>45.372004480152434</v>
+      </c>
+      <c r="C101" s="6">
+        <v>5.2238335840715457</v>
+      </c>
+      <c r="D101" s="6">
+        <v>47.583673489448834</v>
+      </c>
+      <c r="E101" s="6">
+        <v>1.2689552642878279</v>
+      </c>
+      <c r="F101" s="12"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="12"/>
+      <c r="I101" s="12"/>
+      <c r="J101" s="12"/>
+      <c r="K101" s="12"/>
+      <c r="L101" s="12"/>
+      <c r="M101" s="12"/>
+      <c r="N101" s="12"/>
+      <c r="O101" s="12"/>
+      <c r="P101" s="6">
+        <v>0.55153318203935808</v>
+      </c>
+      <c r="Q101" s="12"/>
+      <c r="R101" s="12"/>
+      <c r="S101" s="12"/>
+      <c r="T101" s="12"/>
+      <c r="U101" s="12"/>
+      <c r="V101" s="12"/>
+      <c r="W101" s="12"/>
+      <c r="X101" s="12"/>
+      <c r="Y101" s="12"/>
+      <c r="Z101" s="5">
+        <v>86.192353666666676</v>
+      </c>
+      <c r="AA101" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="102" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B102" s="6">
+        <v>48.787866624065387</v>
+      </c>
+      <c r="C102" s="6">
+        <v>6.1447119664911609</v>
+      </c>
+      <c r="D102" s="6">
+        <v>42.644630111825826</v>
+      </c>
+      <c r="E102" s="6">
+        <v>1.7468678034264777</v>
+      </c>
+      <c r="F102" s="12"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="12"/>
+      <c r="I102" s="12"/>
+      <c r="J102" s="12"/>
+      <c r="K102" s="12"/>
+      <c r="L102" s="12"/>
+      <c r="M102" s="12"/>
+      <c r="N102" s="12"/>
+      <c r="O102" s="12"/>
+      <c r="P102" s="6">
+        <v>0.67592349419115516</v>
+      </c>
+      <c r="Q102" s="12"/>
+      <c r="R102" s="12"/>
+      <c r="S102" s="12"/>
+      <c r="T102" s="12"/>
+      <c r="U102" s="12"/>
+      <c r="V102" s="12"/>
+      <c r="W102" s="12"/>
+      <c r="X102" s="12"/>
+      <c r="Y102" s="12"/>
+      <c r="Z102" s="5">
+        <v>83.143275222222215</v>
+      </c>
+      <c r="AA102" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="103" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B103" s="6">
+        <v>50.736756256716518</v>
+      </c>
+      <c r="C103" s="6">
+        <v>6.6847225733246614</v>
+      </c>
+      <c r="D103" s="6">
+        <v>39.736097798812779</v>
+      </c>
+      <c r="E103" s="6">
+        <v>1.9182853432252658</v>
+      </c>
+      <c r="F103" s="12"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="12"/>
+      <c r="I103" s="12"/>
+      <c r="J103" s="12"/>
+      <c r="K103" s="12"/>
+      <c r="L103" s="12"/>
+      <c r="M103" s="12"/>
+      <c r="N103" s="12"/>
+      <c r="O103" s="12"/>
+      <c r="P103" s="6">
+        <v>0.92413802792076993</v>
+      </c>
+      <c r="Q103" s="12"/>
+      <c r="R103" s="12"/>
+      <c r="S103" s="12"/>
+      <c r="T103" s="12"/>
+      <c r="U103" s="12"/>
+      <c r="V103" s="12"/>
+      <c r="W103" s="12"/>
+      <c r="X103" s="12"/>
+      <c r="Y103" s="12"/>
+      <c r="Z103" s="5">
+        <v>98.715731222222232</v>
+      </c>
+      <c r="AA103" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="104" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B104" s="6">
+        <v>51.966098684497616</v>
+      </c>
+      <c r="C104" s="6">
+        <v>7.1255570366480221</v>
+      </c>
+      <c r="D104" s="6">
+        <v>36.513958576416385</v>
+      </c>
+      <c r="E104" s="6">
+        <v>2.9086208610690547</v>
+      </c>
+      <c r="F104" s="12"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="12"/>
+      <c r="I104" s="12"/>
+      <c r="J104" s="12"/>
+      <c r="K104" s="12"/>
+      <c r="L104" s="12"/>
+      <c r="M104" s="12"/>
+      <c r="N104" s="12"/>
+      <c r="O104" s="12"/>
+      <c r="P104" s="6">
+        <v>1.4857648413689293</v>
+      </c>
+      <c r="Q104" s="12"/>
+      <c r="R104" s="12"/>
+      <c r="S104" s="12"/>
+      <c r="T104" s="12"/>
+      <c r="U104" s="12"/>
+      <c r="V104" s="12"/>
+      <c r="W104" s="12"/>
+      <c r="X104" s="12"/>
+      <c r="Y104" s="12"/>
+      <c r="Z104" s="5">
+        <v>116.52620025000006</v>
+      </c>
+      <c r="AA104" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="105" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B105" s="6">
+        <v>52.457364674404836</v>
+      </c>
+      <c r="C105" s="6">
+        <v>7.818356008967962</v>
+      </c>
+      <c r="D105" s="6">
+        <v>33.94381032547561</v>
+      </c>
+      <c r="E105" s="6">
+        <v>3.48038624477838</v>
+      </c>
+      <c r="F105" s="12"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="12"/>
+      <c r="I105" s="12"/>
+      <c r="J105" s="12"/>
+      <c r="K105" s="12"/>
+      <c r="L105" s="12"/>
+      <c r="M105" s="12"/>
+      <c r="N105" s="12"/>
+      <c r="O105" s="12"/>
+      <c r="P105" s="6">
+        <v>2.3000827463732034</v>
+      </c>
+      <c r="Q105" s="12"/>
+      <c r="R105" s="12"/>
+      <c r="S105" s="12"/>
+      <c r="T105" s="12"/>
+      <c r="U105" s="12"/>
+      <c r="V105" s="12"/>
+      <c r="W105" s="12"/>
+      <c r="X105" s="12"/>
+      <c r="Y105" s="12"/>
+      <c r="Z105" s="5">
+        <v>132.87580952380949</v>
+      </c>
+      <c r="AA105" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="106" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B106" s="6">
+        <v>51.852200570253871</v>
+      </c>
+      <c r="C106" s="6">
+        <v>8.5352724508317497</v>
+      </c>
+      <c r="D106" s="6">
+        <v>31.978396610682637</v>
+      </c>
+      <c r="E106" s="6">
+        <v>4.2523329601497046</v>
+      </c>
+      <c r="F106" s="12"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="12"/>
+      <c r="I106" s="12"/>
+      <c r="J106" s="12"/>
+      <c r="K106" s="12"/>
+      <c r="L106" s="12"/>
+      <c r="M106" s="12"/>
+      <c r="N106" s="12"/>
+      <c r="O106" s="12"/>
+      <c r="P106" s="6">
+        <v>3.3817974080820385</v>
+      </c>
+      <c r="Q106" s="12"/>
+      <c r="R106" s="12"/>
+      <c r="S106" s="12"/>
+      <c r="T106" s="12"/>
+      <c r="U106" s="12"/>
+      <c r="V106" s="12"/>
+      <c r="W106" s="12"/>
+      <c r="X106" s="12"/>
+      <c r="Y106" s="12"/>
+      <c r="Z106" s="5">
+        <v>154.53813277777778</v>
+      </c>
+      <c r="AA106" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="107" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B107" s="6">
+        <v>51.372761475326854</v>
+      </c>
+      <c r="C107" s="6">
+        <v>8.790516358863357</v>
+      </c>
+      <c r="D107" s="6">
+        <v>29.88165140595067</v>
+      </c>
+      <c r="E107" s="6">
+        <v>4.8170713188550689</v>
+      </c>
+      <c r="F107" s="12"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="12"/>
+      <c r="I107" s="12"/>
+      <c r="J107" s="12"/>
+      <c r="K107" s="12"/>
+      <c r="L107" s="12"/>
+      <c r="M107" s="12"/>
+      <c r="N107" s="12"/>
+      <c r="O107" s="12"/>
+      <c r="P107" s="6">
+        <v>5.1379994410040446</v>
+      </c>
+      <c r="Q107" s="12"/>
+      <c r="R107" s="12"/>
+      <c r="S107" s="12"/>
+      <c r="T107" s="12"/>
+      <c r="U107" s="12"/>
+      <c r="V107" s="12"/>
+      <c r="W107" s="12"/>
+      <c r="X107" s="12"/>
+      <c r="Y107" s="12"/>
+      <c r="Z107" s="5">
+        <v>182.3385538888889</v>
+      </c>
+      <c r="AA107" s="12" t="s">
         <v>37</v>
       </c>
     </row>
